--- a/GATEWAY/A1#111#TOMPROJECTSRLSXX/TOMproject_srls/tomko_med/2.0/report-checklist-v822.xlsx
+++ b/GATEWAY/A1#111#TOMPROJECTSRLSXX/TOMproject_srls/tomko_med/2.0/report-checklist-v822.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it-fse-gtw-tools-main\jwt-generator\data-generator\INVIATI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C784AC61-0E95-407A-BC40-BD7C6260DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925920F-4106-457E-89A8-9A2D13AB27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="540" windowWidth="27375" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1915,24 +1915,6 @@
     <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo.</t>
   </si>
   <si>
-    <t>2024-12-11T18:50:46Z</t>
-  </si>
-  <si>
-    <t>d8b690fdc0994d17</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.2c936fda2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-23T15:53:34Z</t>
-  </si>
-  <si>
-    <t>a72d5afcf1ea5726</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.8943ee670e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>E' stato utilizzato lo stesso file pdf contente il Referto xml CDA2 del Test Case 1 dato che contiene tutte le sezioni ed elementi obbligatori da specifiche nazionali HL7 Italia</t>
   </si>
   <si>
@@ -1946,6 +1928,24 @@
   </si>
   <si>
     <t>subject_application_version:2.0</t>
+  </si>
+  <si>
+    <t>2025-01-13T07:35:46Z</t>
+  </si>
+  <si>
+    <t>7de387f236caaaa7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.0722ab7d74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-13T07:37:34Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.fcca53b0c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8b852586c6ae388a</t>
   </si>
 </sst>
 </file>
@@ -4369,7 +4369,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D5"/>
+      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="80" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D2" s="79"/>
       <c r="F2" s="6"/>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="87" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D3" s="79"/>
       <c r="F3" s="6"/>
@@ -4470,7 +4470,7 @@
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="87" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="4"/>
@@ -4497,7 +4497,7 @@
       <c r="A5" s="85"/>
       <c r="B5" s="86"/>
       <c r="C5" s="87" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D5" s="79"/>
       <c r="F5" s="6"/>
@@ -6206,7 +6206,7 @@
         <v>319</v>
       </c>
       <c r="F51" s="71">
-        <v>45637</v>
+        <v>45670</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -9897,16 +9897,16 @@
         <v>450</v>
       </c>
       <c r="F150" s="71">
-        <v>45637</v>
+        <v>45670</v>
       </c>
       <c r="G150" s="72" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="H150" s="73" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="I150" s="72" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
@@ -11705,16 +11705,16 @@
         <v>482</v>
       </c>
       <c r="F196" s="74">
-        <v>45649</v>
+        <v>45670</v>
       </c>
       <c r="G196" s="75" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H196" s="75" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I196" s="75" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="U196" s="35"/>
       <c r="V196" s="36" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="W196" s="39" t="s">
         <v>37</v>
@@ -18988,27 +18988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19266,32 +19245,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19308,4 +19283,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#TOMPROJECTSRLSXX/TOMproject_srls/tomko_med/2.0/report-checklist-v822.xlsx
+++ b/GATEWAY/A1#111#TOMPROJECTSRLSXX/TOMproject_srls/tomko_med/2.0/report-checklist-v822.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\it-fse-gtw-tools-main\jwt-generator\data-generator\INVIATI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925920F-4106-457E-89A8-9A2D13AB27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33770EBC-130A-4B87-B14F-1BDAE15319D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="502">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1930,22 +1930,19 @@
     <t>subject_application_version:2.0</t>
   </si>
   <si>
-    <t>2025-01-13T07:35:46Z</t>
-  </si>
-  <si>
-    <t>7de387f236caaaa7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.0722ab7d74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-13T07:37:34Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.fcca53b0c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8b852586c6ae388a</t>
+    <t>6a8967ac32c141b3</t>
+  </si>
+  <si>
+    <t>2025-02-02T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.dd24f0aa93^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e73f9c0df305c22f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.1.6a58a96f92c663d4e4c50b59131686b16f3a89ecbb02317c536a3f4f45106500.c7d57e04e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4366,10 +4363,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
+      <selection pane="bottomRight" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6206,7 +6203,7 @@
         <v>319</v>
       </c>
       <c r="F51" s="71">
-        <v>45670</v>
+        <v>45690</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -9897,13 +9894,13 @@
         <v>450</v>
       </c>
       <c r="F150" s="71">
-        <v>45670</v>
+        <v>45690</v>
       </c>
       <c r="G150" s="72" t="s">
+        <v>498</v>
+      </c>
+      <c r="H150" s="73" t="s">
         <v>497</v>
-      </c>
-      <c r="H150" s="73" t="s">
-        <v>498</v>
       </c>
       <c r="I150" s="72" t="s">
         <v>499</v>
@@ -11705,13 +11702,13 @@
         <v>482</v>
       </c>
       <c r="F196" s="74">
-        <v>45670</v>
+        <v>45690</v>
       </c>
       <c r="G196" s="75" t="s">
+        <v>498</v>
+      </c>
+      <c r="H196" s="75" t="s">
         <v>500</v>
-      </c>
-      <c r="H196" s="75" t="s">
-        <v>502</v>
       </c>
       <c r="I196" s="75" t="s">
         <v>501</v>
